--- a/Documentation/BOMs/Watch Lower PCB BOM.xlsx
+++ b/Documentation/BOMs/Watch Lower PCB BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\OneDrive\Documents\Projects\Smart-Watch\Documentation\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\Documents\Other\Projects\Smart-Watch\Documentation\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1335510F-9373-47D2-8AED-8C355BC3F7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4CACBD-5E69-42F9-8685-681B716AD170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="0" windowWidth="17400" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>https://www.mouser.co.uk/ProductDetail/Texas-Instruments/DRV2605LYZFR?qs=7z%252BmIopC6%2FIPohzEGVWenA%3D%3D</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -444,21 +447,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.109375" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -497,11 +500,14 @@
       <c r="F3">
         <v>1.65</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -511,11 +517,14 @@
       <c r="F4">
         <v>9.94</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -531,15 +540,18 @@
       <c r="F6" s="3">
         <v>0.3</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F7" s="3"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -555,139 +567,142 @@
       <c r="F8" s="3">
         <v>2.46</v>
       </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F13" s="3"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I14" s="1"/>
     </row>
-    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F29" s="3"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F30" s="3"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F31" s="3"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F33" s="3"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F36" s="3"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F37" s="3"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F38" s="3"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F39" s="3"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F40" s="3"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F42" s="3"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F43" s="3"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F46" s="3"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F50" s="3"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C52" s="4"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F54" s="3"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F55" s="3"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F60" s="3"/>
     </row>
   </sheetData>
